--- a/biology/Zoologie/Chien_nu_du_Pérou/Chien_nu_du_Pérou.xlsx
+++ b/biology/Zoologie/Chien_nu_du_Pérou/Chien_nu_du_Pérou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_nu_du_P%C3%A9rou</t>
+          <t>Chien_nu_du_Pérou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chien du Pérou,nommé dans son pays d'origine "viringo", est une race de chien originaire du Pérou. Il en existe 2 variétés : le chien nu et le chien à fourrure.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chien_nu_du_P%C3%A9rou</t>
+          <t>Chien_nu_du_Pérou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,11 +529,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs hypothèses expliquant la présence de ce chien nu au Pérou ont été proposées. La race a pu être introduite durant l'immigration chinoise survenue après la promulgation de la loi qui abolissait l'esclavage des noirs par le président Ramón Castilla au XIXe siècle. Une seconde hypothèse serait que la race aurait été apportées par les nomades africains qui arrivèrent en Amérique accompagnés de chiens nus. La troisième hypothèse relie l'existence du chien nu à la migration des hommes de l'Asie vers l'Amérique par le détroit de Béring[1]. 
-Il existe cependant des preuves archéologiques de la présence d'un chien ressemblant au chien nu du Pérou sur les céramiques des civilisations pré-incas (Vicús, Moche, Chancay) entre le IVe siècle av. J.-C. et le XVIe siècle. La représentation du chien nu a remplacé celle du puma, du serpent ou du faucon, notamment dans la culture Chancay[1]. 
-les récentes decouvertes archeologiques ont pu poser avec certitude la présence du chien à fourrure au côté des chiens nus[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs hypothèses expliquant la présence de ce chien nu au Pérou ont été proposées. La race a pu être introduite durant l'immigration chinoise survenue après la promulgation de la loi qui abolissait l'esclavage des noirs par le président Ramón Castilla au XIXe siècle. Une seconde hypothèse serait que la race aurait été apportées par les nomades africains qui arrivèrent en Amérique accompagnés de chiens nus. La troisième hypothèse relie l'existence du chien nu à la migration des hommes de l'Asie vers l'Amérique par le détroit de Béring. 
+Il existe cependant des preuves archéologiques de la présence d'un chien ressemblant au chien nu du Pérou sur les céramiques des civilisations pré-incas (Vicús, Moche, Chancay) entre le IVe siècle av. J.-C. et le XVIe siècle. La représentation du chien nu a remplacé celle du puma, du serpent ou du faucon, notamment dans la culture Chancay. 
+les récentes decouvertes archeologiques ont pu poser avec certitude la présence du chien à fourrure au côté des chiens nus. 
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chien_nu_du_P%C3%A9rou</t>
+          <t>Chien_nu_du_Pérou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le chien nu du Pérou est un chien élégant et svelte.
 Le rapport du corps est de 1:1, ce qui signifie que le corps de profil (hors tête) entre dans un carré. 
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chien_nu_du_P%C3%A9rou</t>
+          <t>Chien_nu_du_Pérou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le standard de la race décrit le chien nu du Pérou comme ayant un caractère noble et affectueux avec ses proches ; il est réservé envers les étrangers, vif, éveillé et bon gardien[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le standard de la race décrit le chien nu du Pérou comme ayant un caractère noble et affectueux avec ses proches ; il est réservé envers les étrangers, vif, éveillé et bon gardien.
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chien_nu_du_P%C3%A9rou</t>
+          <t>Chien_nu_du_Pérou</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Soins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour une belle peau douce et saine, le péruvien a besoin d'un bonne alimentation. La peau s'assèche, elle a besoin d'être hydratée minimum 1 fois par semaine. produits naturels à privilégier. produits à base d'huile de coco, beurre de karité, huile de chanvre, lait de chèvre, lait d'ânesse, cire d'abeille, miel de manuka.
 Un bain lorsque c'est nécessaire, savon d'alep, savon de marseille, savon au lait de chèvre, savon au lait d'ânesse.
